--- a/evaluation/WN18RR/evaluation-by-generation-100@1.xlsx
+++ b/evaluation/WN18RR/evaluation-by-generation-100@1.xlsx
@@ -797,38 +797,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>json_object</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.01268115942028985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.01268115942028985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.01268115942028985</v>
       </c>
       <c r="F9" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -839,38 +839,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>json_object</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01268115942028985</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01268115942028985</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01268115942028985</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>8</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
